--- a/doc/V-Cycle Process/V_Cycle Process Script.xlsx
+++ b/doc/V-Cycle Process/V_Cycle Process Script.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="3300" windowWidth="12600" windowHeight="4845" activeTab="1"/>
+    <workbookView xWindow="7890" yWindow="3360" windowWidth="12600" windowHeight="4785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="V-Cycle" sheetId="2" r:id="rId1"/>
@@ -2001,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/doc/V-Cycle Process/V_Cycle Process Script.xlsx
+++ b/doc/V-Cycle Process/V_Cycle Process Script.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="3360" windowWidth="12600" windowHeight="4785" activeTab="1"/>
+    <workbookView xWindow="7890" yWindow="3420" windowWidth="12600" windowHeight="4725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="V-Cycle" sheetId="2" r:id="rId1"/>
@@ -2001,9 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/doc/V-Cycle Process/V_Cycle Process Script.xlsx
+++ b/doc/V-Cycle Process/V_Cycle Process Script.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="3420" windowWidth="12600" windowHeight="4725" activeTab="1"/>
+    <workbookView xWindow="7890" yWindow="3420" windowWidth="12600" windowHeight="4725" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="V-Cycle" sheetId="2" r:id="rId1"/>
@@ -322,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +354,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -452,7 +458,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -533,6 +539,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1523,9 +1532,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
+        <a:xfrm>
           <a:off x="1219200" y="190500"/>
-          <a:ext cx="978408" cy="484632"/>
+          <a:ext cx="1854708" cy="484632"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1985,9 +1994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -2001,7 +2008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2613,7 +2620,7 @@
   <dimension ref="C2:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2779,7 +2786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2812,7 +2819,7 @@
       <c r="C8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="55" t="s">
         <v>57</v>
       </c>
     </row>
